--- a/焦煤/eta/焦煤煤矿库存_月度数据.xlsx
+++ b/焦煤/eta/焦煤煤矿库存_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>371.7</v>
+        <v>437.3</v>
       </c>
     </row>
     <row r="3">
@@ -471,7 +471,7 @@
         <v>375.1</v>
       </c>
       <c r="C3" t="n">
-        <v>403.3</v>
+        <v>439.2</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>429.3</v>
       </c>
       <c r="C4" t="n">
-        <v>455.7</v>
+        <v>455.2</v>
       </c>
     </row>
     <row r="5">
@@ -497,7 +497,7 @@
         <v>452.1</v>
       </c>
       <c r="C5" t="n">
-        <v>448.5</v>
+        <v>448.3</v>
       </c>
     </row>
     <row r="6">
@@ -575,7 +575,7 @@
         <v>568.4</v>
       </c>
       <c r="C11" t="n">
-        <v>527</v>
+        <v>527.2</v>
       </c>
     </row>
     <row r="12">
@@ -588,7 +588,7 @@
         <v>582.3</v>
       </c>
       <c r="C12" t="n">
-        <v>563.3</v>
+        <v>563.1</v>
       </c>
     </row>
     <row r="13">
@@ -614,7 +614,7 @@
         <v>482.8</v>
       </c>
       <c r="C14" t="n">
-        <v>485.2</v>
+        <v>484.7</v>
       </c>
     </row>
     <row r="15">
@@ -627,7 +627,7 @@
         <v>425.9</v>
       </c>
       <c r="C15" t="n">
-        <v>449</v>
+        <v>448.3</v>
       </c>
     </row>
     <row r="16">
@@ -640,7 +640,7 @@
         <v>438.7</v>
       </c>
       <c r="C16" t="n">
-        <v>434.7</v>
+        <v>434.3</v>
       </c>
     </row>
     <row r="17">
@@ -653,7 +653,7 @@
         <v>482.5</v>
       </c>
       <c r="C17" t="n">
-        <v>446</v>
+        <v>445.9</v>
       </c>
     </row>
     <row r="18">
@@ -731,7 +731,7 @@
         <v>316</v>
       </c>
       <c r="C23" t="n">
-        <v>352.8</v>
+        <v>352.9</v>
       </c>
     </row>
     <row r="24">
